--- a/code/20191007.xlsx
+++ b/code/20191007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D3479-F6CB-604F-9D8D-B2961E471B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43229BC9-4FEB-1344-B387-FA7969BA51C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="-3040" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-6100" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單向當沖基本統計量" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="稅率調降基本統計量(半年)" sheetId="4" r:id="rId4"/>
     <sheet name="稅率調降基本統計量(一年)" sheetId="5" r:id="rId5"/>
     <sheet name="基本統計量檢定結果" sheetId="6" r:id="rId6"/>
+    <sheet name="Part 3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="46">
   <si>
     <t>上市</t>
   </si>
@@ -221,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +251,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
   </fills>
@@ -320,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -368,6 +375,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,63 +629,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="35" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1073,63 +1087,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="35" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -1531,63 +1545,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="35" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -5533,63 +5547,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="35" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -5991,63 +6005,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="35" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -6449,63 +6463,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="35" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -6939,63 +6953,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="35" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -7397,63 +7411,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="35" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -7827,63 +7841,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="35" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -8311,69 +8325,69 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="35" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -8626,96 +8640,96 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="19">
         <v>0.1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="19">
         <v>0.35</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
         <v>0.02</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="19">
         <v>0.08</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="19">
         <v>7.03</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="19">
         <v>0.11</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="19">
         <v>0.35</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
         <v>0.02</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="19">
         <v>5.7</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="19">
         <v>0.43</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="19">
         <v>0.65</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>0.1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="19">
         <v>0.22</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="19">
         <v>0.52</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="19">
         <v>11.16</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="19">
         <v>0.53</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="19">
         <v>0.88</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
         <v>0.1</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="19">
         <v>0.23</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="19">
         <v>0.6</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="19">
         <v>9.74</v>
       </c>
     </row>
@@ -8775,63 +8789,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="35" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -9084,96 +9098,96 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="19">
         <v>0.12</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="19">
         <v>0.34</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
         <v>0.02</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="19">
         <v>0.08</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="19">
         <v>4.6900000000000004</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="19">
         <v>0.12</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="19">
         <v>0.37</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
         <v>0.02</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="19">
         <v>0.08</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="19">
         <v>5.33</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="19">
         <v>0.88</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="19">
         <v>0.23</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="19">
         <v>0.62</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="19">
         <v>6.42</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="19">
         <v>0.67</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="19">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
         <v>0.09</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="19">
         <v>0.25</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="19">
         <v>0.8</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="19">
         <v>13.77</v>
       </c>
     </row>
@@ -9233,63 +9247,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="35" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -9542,96 +9556,96 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="19">
         <v>0.11</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="19">
         <v>0.35</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19">
         <v>0.02</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="19">
         <v>0.08</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="19">
         <v>7.03</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="19">
         <v>0.11</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="19">
         <v>0.36</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
         <v>0.02</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="19">
         <v>5.7</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="19">
         <v>0.49</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="19">
         <v>0.76</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
         <v>0.09</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="19">
         <v>0.22</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="19">
         <v>11.16</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="19">
         <v>0.59</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="19">
         <v>1.01</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
         <v>0.09</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="19">
         <v>0.24</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="19">
         <v>0.67</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="19">
         <v>13.77</v>
       </c>
     </row>
@@ -9717,69 +9731,69 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A43" sqref="A43:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="35" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -10032,96 +10046,96 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="19">
         <v>0.1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="19">
         <v>0.36</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
         <v>0.02</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="19">
         <v>7.47</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="19">
         <v>0.11</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="19">
         <v>0.33</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
         <v>0.02</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="19">
         <v>6.03</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="19">
         <v>0.38</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="19">
         <v>0.5</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>0.09</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="19">
         <v>0.21</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="19">
         <v>0.51</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="19">
         <v>6.04</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="19">
         <v>0.87</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
         <v>0.11</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="19">
         <v>0.26</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="19">
         <v>0.67</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="19">
         <v>9.57</v>
       </c>
     </row>
@@ -10181,63 +10195,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="35" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -10490,96 +10504,96 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="19">
         <v>0.12</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="19">
         <v>0.32</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
         <v>0.02</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="19">
         <v>0.09</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="19">
         <v>3.25</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="19">
         <v>0.12</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="19">
         <v>0.39</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
         <v>0.02</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="19">
         <v>5.33</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="19">
         <v>0.52</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="19">
         <v>0.73</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
         <v>0.08</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="19">
         <v>0.23</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="19">
         <v>0.65</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="19">
         <v>5.37</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="19">
         <v>0.68</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="19">
         <v>1.03</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
         <v>0.11</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="19">
         <v>0.32</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="19">
         <v>0.84</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="19">
         <v>8.52</v>
       </c>
     </row>
@@ -10639,63 +10653,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="35" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -10948,96 +10962,96 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="19">
         <v>0.11</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="19">
         <v>0.34</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19">
         <v>0.02</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="19">
         <v>7.47</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="19">
         <v>0.11</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="19">
         <v>0.36</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
         <v>0.02</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="19">
         <v>6.03</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="19">
         <v>0.44</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="19">
         <v>0.62</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
         <v>0.09</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="19">
         <v>0.22</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="19">
         <v>6.04</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="19">
         <v>0.62</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="19">
         <v>0.95</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
         <v>0.11</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="19">
         <v>0.74</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="19">
         <v>9.57</v>
       </c>
     </row>
@@ -11120,10 +11134,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -11132,51 +11146,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="37" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -11227,6 +11241,1161 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A23" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A29" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B30" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="39"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A36" s="33"/>
+      <c r="B36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="10"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A37" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="10"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A38" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A39" s="34"/>
+      <c r="B39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="10"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="10"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A42" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAC231F-42AD-594B-822B-780F865E788E}">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="14.5" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>37</v>
       </c>
@@ -11377,7 +12546,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
@@ -11389,7 +12558,7 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="10"/>
@@ -11403,7 +12572,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="10"/>
@@ -11417,7 +12586,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="10"/>
@@ -11429,7 +12598,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="10"/>
@@ -11443,7 +12612,7 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="10"/>
@@ -11460,51 +12629,51 @@
       <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="37" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="37" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="37" t="s">
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="37" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
@@ -11705,7 +12874,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A20" s="12"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="10"/>
@@ -11717,7 +12886,7 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="10"/>
@@ -11731,7 +12900,7 @@
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="10"/>
@@ -11745,7 +12914,7 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
@@ -11757,7 +12926,7 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="10"/>
@@ -11771,7 +12940,7 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="10"/>
@@ -11785,51 +12954,51 @@
       <c r="N25" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="37" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="37" t="s">
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="37" t="s">
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="37" t="s">
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
@@ -12030,7 +13199,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="10"/>
@@ -12042,7 +13211,7 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="10"/>
@@ -12056,7 +13225,7 @@
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="10"/>
@@ -12070,7 +13239,7 @@
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="10"/>
@@ -12082,7 +13251,7 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="10"/>
@@ -12096,7 +13265,7 @@
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="10"/>
@@ -12111,25 +13280,25 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="A14:P14"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="N15:P15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="N28:P28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/code/20191007.xlsx
+++ b/code/20191007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43229BC9-4FEB-1344-B387-FA7969BA51C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE8F1E3-20BA-B44B-A2CD-8D8ED7F71B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-6100" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-6420" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單向當沖基本統計量" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="46">
   <si>
     <t>上市</t>
   </si>
@@ -374,7 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -399,6 +398,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O996"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:O11"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -629,63 +629,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="42" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -938,96 +938,96 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="19">
         <v>0.43</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="19">
         <v>0.63</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="19">
         <v>0.22</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="19">
         <v>0.51</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="19">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="19">
         <v>0.42</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="19">
         <v>0.6</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
         <v>0.09</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="19">
         <v>0.22</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="19">
         <v>0.46</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="19">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="44">
         <v>0.51</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="44">
         <v>0.67</v>
       </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
+      <c r="D11" s="44">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44">
         <v>0.15</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="44">
         <v>0.3</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="44">
         <v>0.63</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="44">
         <v>5.52</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="44">
         <v>0.65</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="44">
         <v>0.74</v>
       </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="30">
+      <c r="K11" s="44">
+        <v>0</v>
+      </c>
+      <c r="L11" s="44">
         <v>0.15</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="44">
         <v>0.38</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="44">
         <v>0.9</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="44">
         <v>4.62</v>
       </c>
     </row>
@@ -1087,63 +1087,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="42" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -1396,96 +1396,96 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="19">
         <v>0.43</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="19">
         <v>0.63</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="19">
         <v>0.22</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="19">
         <v>0.51</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="19">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="19">
         <v>0.42</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="19">
         <v>0.6</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
         <v>0.09</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="19">
         <v>0.22</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="19">
         <v>0.46</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="19">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="19">
         <v>0.51</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="19">
         <v>0.67</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
         <v>0.15</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="19">
         <v>0.3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="19">
         <v>0.63</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="19">
         <v>5.52</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="19">
         <v>0.65</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="19">
         <v>0.74</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
         <v>0.15</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="19">
         <v>0.38</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="19">
         <v>0.9</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="19">
         <v>4.62</v>
       </c>
     </row>
@@ -1545,63 +1545,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="42" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -1854,96 +1854,96 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="19">
         <v>0.48</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="19">
         <v>0.64</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
         <v>0.1</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="19">
         <v>0.27</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="19">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="19">
         <v>0.45</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="19">
         <v>0.61</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
         <v>0.1</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="19">
         <v>0.24</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="19">
         <v>0.52</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="19">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="19">
         <v>0.69</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="19">
         <v>0.02</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="19">
         <v>0.19</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="19">
         <v>0.35</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="19">
         <v>0.7</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="19">
         <v>5.52</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="19">
         <v>0.7</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="19">
         <v>0.75</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="19">
         <v>0.04</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="19">
         <v>0.18</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="19">
         <v>0.43</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="19">
         <v>0.93</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="19">
         <v>4.62</v>
       </c>
     </row>
@@ -5541,69 +5541,69 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="42" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -5856,96 +5856,96 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="19">
         <v>0.42</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="19">
         <v>0.6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <v>0.09</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="19">
         <v>0.22</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="19">
         <v>0.47</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="19">
         <v>0.49</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="19">
         <v>0.77</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
         <v>0.08</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="19">
         <v>0.23</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="19">
         <v>0.52</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="19">
         <v>5.59</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="19">
         <v>0.7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="19">
         <v>0.75</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="19">
         <v>0.04</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="19">
         <v>0.18</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="19">
         <v>0.43</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="19">
         <v>0.93</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="19">
         <v>4.6399999999999997</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="19">
         <v>0.6</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="19">
         <v>0.71</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="19">
         <v>0.02</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="19">
         <v>0.18</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="19">
         <v>0.39</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="19">
         <v>0.72</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="19">
         <v>4.6399999999999997</v>
       </c>
     </row>
@@ -6005,63 +6005,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="42" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -6314,96 +6314,96 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="19">
         <v>0.42</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="19">
         <v>0.6</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
         <v>0.09</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="19">
         <v>0.22</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="19">
         <v>0.47</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="19">
         <v>0.49</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="19">
         <v>0.77</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
         <v>0.08</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="19">
         <v>0.23</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="19">
         <v>0.52</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="19">
         <v>5.59</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="19">
         <v>0.65</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="19">
         <v>0.74</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
         <v>0.15</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="19">
         <v>0.38</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="19">
         <v>0.85</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="19">
         <v>4.6399999999999997</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="19">
         <v>0.7</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
         <v>0.15</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="19">
         <v>0.34</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="19">
         <v>0.66</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="19">
         <v>4.6399999999999997</v>
       </c>
     </row>
@@ -6463,63 +6463,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="42" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -6772,96 +6772,96 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="19">
         <v>0.42</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="19">
         <v>0.6</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
         <v>0.09</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="19">
         <v>0.22</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="19">
         <v>0.47</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="19">
         <v>0.49</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="19">
         <v>0.77</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
         <v>0.08</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="19">
         <v>0.23</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="19">
         <v>0.52</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="19">
         <v>5.59</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="19">
         <v>0.65</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="19">
         <v>0.74</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
         <v>0.15</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="19">
         <v>0.38</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="19">
         <v>0.85</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="19">
         <v>4.6399999999999997</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="19">
         <v>0.7</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
         <v>0.15</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="19">
         <v>0.34</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="19">
         <v>0.66</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="19">
         <v>4.6399999999999997</v>
       </c>
     </row>
@@ -6922,18 +6922,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="I33:O33"/>
     <mergeCell ref="B32:O32"/>
     <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6947,69 +6947,69 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="42" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -7262,96 +7262,96 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="19">
         <v>0.1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="19">
         <v>0.35</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
         <v>0.01</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="19">
         <v>0.06</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="19">
         <v>6.19</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="19">
         <v>0.1</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="19">
         <v>0.37</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
         <v>0.01</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="19">
         <v>7.47</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="19">
         <v>0.37</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="19">
         <v>0.17</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="19">
         <v>0.46</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="19">
         <v>5.21</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="19">
         <v>0.37</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="19">
         <v>0.51</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="19">
         <v>0.19</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="19">
         <v>0.44</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="19">
         <v>3.93</v>
       </c>
     </row>
@@ -7411,63 +7411,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="42" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -7720,68 +7720,68 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="19">
         <v>0.49</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="19">
         <v>0.88</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
         <v>0.05</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="19">
         <v>0.16</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="19">
         <v>8.39</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="19">
         <v>0.51</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="19">
         <v>0.8</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
         <v>0.06</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="19">
         <v>0.21</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="19">
         <v>0.62</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="19">
         <v>7.07</v>
       </c>
     </row>
@@ -7841,63 +7841,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="42" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -8150,96 +8150,96 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="19">
         <v>0.11</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="19">
         <v>0.36</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19">
         <v>0.01</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="19">
         <v>0.06</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="19">
         <v>6.19</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="19">
         <v>0.11</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="19">
         <v>0.36</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
         <v>0.01</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="19">
         <v>7.48</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="19">
         <v>0.43</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="19">
         <v>0.72</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
         <v>0.06</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="19">
         <v>0.17</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="19">
         <v>0.5</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="19">
         <v>8.39</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="19">
         <v>0.43</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="19">
         <v>0.66</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="19">
         <v>0.2</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="19">
         <v>0.51</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="19">
         <v>7.07</v>
       </c>
     </row>
@@ -8300,11 +8300,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="I3:O3"/>
@@ -8312,6 +8307,11 @@
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8324,70 +8324,70 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="42" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -8640,7 +8640,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="19">
@@ -8687,7 +8687,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="19">
@@ -8789,63 +8789,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="42" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -9098,7 +9098,7 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="19">
@@ -9145,7 +9145,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="19">
@@ -9247,63 +9247,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="42" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -9556,7 +9556,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="19">
@@ -9603,7 +9603,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="19">
@@ -9730,70 +9730,70 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="42" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -10046,7 +10046,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="19">
@@ -10093,7 +10093,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="19">
@@ -10195,63 +10195,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="42" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -10504,7 +10504,7 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="19">
@@ -10551,7 +10551,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="19">
@@ -10653,63 +10653,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="42" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -10962,7 +10962,7 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="19">
@@ -11009,7 +11009,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="19">
@@ -11136,8 +11136,8 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -11146,51 +11146,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="44" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -11386,8 +11386,8 @@
       <c r="O6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="26" t="s">
-        <v>38</v>
+      <c r="P6" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
@@ -11436,12 +11436,12 @@
       <c r="O7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="33"/>
+      <c r="P7" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="32"/>
       <c r="B8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="10"/>
@@ -11453,35 +11453,107 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10"/>
+      <c r="B9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="10"/>
+      <c r="B10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="10"/>
@@ -11524,51 +11596,51 @@
       <c r="A14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="44" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="44" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="44" t="s">
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="44" t="s">
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
@@ -11765,7 +11837,7 @@
         <v>38</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
@@ -11819,7 +11891,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A22" s="33"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="10"/>
@@ -11831,35 +11903,107 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="10"/>
+      <c r="B23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="10"/>
+      <c r="B24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="10"/>
@@ -11889,55 +12033,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:16" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="44" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="44" t="s">
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="44" t="s">
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="39"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="44" t="s">
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
@@ -12134,7 +12278,7 @@
         <v>39</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1">
@@ -12184,11 +12328,11 @@
         <v>38</v>
       </c>
       <c r="P35" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A36" s="33"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="10"/>
@@ -12200,35 +12344,107 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="10"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="10"/>
+      <c r="B37" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="10"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="10"/>
+      <c r="B38" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A39" s="34"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="10"/>
       <c r="D39" s="11"/>
       <c r="E39" s="10"/>
@@ -12259,10 +12475,16 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A42" s="35"/>
+      <c r="A42" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="H16:J16"/>
@@ -12275,12 +12497,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12296,56 +12512,56 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="31" customWidth="1"/>
-    <col min="2" max="16384" width="14.5" style="31"/>
+    <col min="1" max="1" width="16.1640625" style="30" customWidth="1"/>
+    <col min="2" max="16384" width="14.5" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="44" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -12546,7 +12762,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
@@ -12558,7 +12774,7 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="10"/>
@@ -12572,7 +12788,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="10"/>
@@ -12586,7 +12802,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="10"/>
@@ -12598,7 +12814,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="10"/>
@@ -12612,7 +12828,7 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="10"/>
@@ -12629,51 +12845,51 @@
       <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="44" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="44" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="44" t="s">
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="44" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
@@ -12874,7 +13090,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="10"/>
@@ -12886,7 +13102,7 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="10"/>
@@ -12900,7 +13116,7 @@
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="10"/>
@@ -12914,7 +13130,7 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
@@ -12926,7 +13142,7 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="10"/>
@@ -12940,7 +13156,7 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="10"/>
@@ -12954,51 +13170,51 @@
       <c r="N25" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="44" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="44" t="s">
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="44" t="s">
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="44" t="s">
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
@@ -13199,7 +13415,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="10"/>
@@ -13211,7 +13427,7 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="10"/>
@@ -13225,7 +13441,7 @@
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="10"/>
@@ -13239,7 +13455,7 @@
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="10"/>
@@ -13251,7 +13467,7 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="10"/>
@@ -13265,7 +13481,7 @@
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="10"/>
@@ -13280,24 +13496,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/20191007.xlsx
+++ b/code/20191007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE8F1E3-20BA-B44B-A2CD-8D8ED7F71B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5087AC56-B3A7-E846-AB6B-B5819E60C00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6420" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28780" yWindow="-6420" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單向當沖基本統計量" sheetId="1" r:id="rId1"/>
@@ -381,6 +381,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,7 +399,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,63 +629,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -988,46 +988,46 @@
       <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="37">
         <v>0.51</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="37">
         <v>0.67</v>
       </c>
-      <c r="D11" s="44">
-        <v>0</v>
-      </c>
-      <c r="E11" s="44">
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
         <v>0.15</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="37">
         <v>0.3</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="37">
         <v>0.63</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="37">
         <v>5.52</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="37">
         <v>0.65</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="37">
         <v>0.74</v>
       </c>
-      <c r="K11" s="44">
-        <v>0</v>
-      </c>
-      <c r="L11" s="44">
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
         <v>0.15</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="37">
         <v>0.38</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="37">
         <v>0.9</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="37">
         <v>4.62</v>
       </c>
     </row>
@@ -1087,63 +1087,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="41" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -1545,63 +1545,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="41" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -5547,63 +5547,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -6005,63 +6005,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="41" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -6463,63 +6463,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="41" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -6946,70 +6946,70 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -7411,63 +7411,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="41" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -7723,20 +7723,48 @@
       <c r="A25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
+      <c r="B25" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="H25" s="8">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3.81</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -7841,63 +7869,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="41" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -8331,63 +8359,63 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -8789,63 +8817,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="41" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -9247,63 +9275,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="41" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -9730,70 +9758,70 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:O17"/>
+    <sheetView topLeftCell="A4" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -10195,63 +10223,63 @@
       <c r="O14" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="41" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
@@ -10653,63 +10681,63 @@
       <c r="O29" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="41" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -11146,51 +11174,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="43" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -11596,51 +11624,51 @@
       <c r="A14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="43" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="43" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="43" t="s">
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
@@ -12037,51 +12065,51 @@
       <c r="A28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="43" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="43" t="s">
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="43" t="s">
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="43" t="s">
+      <c r="L30" s="39"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
@@ -12517,51 +12545,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="43" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
@@ -12845,51 +12873,51 @@
       <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="43" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="43" t="s">
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="43" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
@@ -13170,51 +13198,51 @@
       <c r="N25" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="43" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="43" t="s">
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="43" t="s">
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="43" t="s">
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
